--- a/error_scores/error_scores_echocardiogram.xlsx
+++ b/error_scores/error_scores_echocardiogram.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>PBFI FuzzyCMeans</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>SHAP KMeans</t>
-  </si>
-  <si>
-    <t>PFBI FuzzyCMeans</t>
   </si>
 </sst>
 </file>
@@ -386,13 +383,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,14 +402,14 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
       <c r="C2">
         <v>1</v>
       </c>
@@ -422,14 +419,14 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0.8106060606060606</v>
+      </c>
       <c r="C3">
         <v>0.8106060606060606</v>
       </c>
@@ -439,14 +436,14 @@
       <c r="E3">
         <v>0.7954545454545454</v>
       </c>
-      <c r="F3">
-        <v>0.8106060606060606</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0.7045454545454546</v>
+      </c>
       <c r="C4">
         <v>0.7045454545454546</v>
       </c>
@@ -456,14 +453,14 @@
       <c r="E4">
         <v>0.803030303030303</v>
       </c>
-      <c r="F4">
-        <v>0.7045454545454546</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0.75</v>
+      </c>
       <c r="C5">
         <v>0.75</v>
       </c>
@@ -473,14 +470,14 @@
       <c r="E5">
         <v>0.6818181818181818</v>
       </c>
-      <c r="F5">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0.7348484848484849</v>
+      </c>
       <c r="C6">
         <v>0.7272727272727273</v>
       </c>
@@ -490,14 +487,14 @@
       <c r="E6">
         <v>0.6742424242424242</v>
       </c>
-      <c r="F6">
-        <v>0.7348484848484849</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0.6893939393939394</v>
+      </c>
       <c r="C7">
         <v>0.6893939393939394</v>
       </c>
@@ -507,14 +504,14 @@
       <c r="E7">
         <v>0.6742424242424242</v>
       </c>
-      <c r="F7">
-        <v>0.6893939393939394</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0.6742424242424242</v>
+      </c>
       <c r="C8">
         <v>0.6742424242424242</v>
       </c>
@@ -524,14 +521,14 @@
       <c r="E8">
         <v>0.6742424242424242</v>
       </c>
-      <c r="F8">
-        <v>0.6742424242424242</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0.6742424242424242</v>
+      </c>
       <c r="C9">
         <v>0.6742424242424242</v>
       </c>
@@ -541,14 +538,14 @@
       <c r="E9">
         <v>0.6742424242424242</v>
       </c>
-      <c r="F9">
-        <v>0.6742424242424242</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0.6742424242424242</v>
+      </c>
       <c r="C10">
         <v>0.6742424242424242</v>
       </c>
@@ -558,14 +555,14 @@
       <c r="E10">
         <v>0.6742424242424242</v>
       </c>
-      <c r="F10">
-        <v>0.6742424242424242</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0.6742424242424242</v>
+      </c>
       <c r="C11">
         <v>0.6742424242424242</v>
       </c>
@@ -575,14 +572,14 @@
       <c r="E11">
         <v>0.6742424242424242</v>
       </c>
-      <c r="F11">
-        <v>0.6742424242424242</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0.6742424242424242</v>
+      </c>
       <c r="C12">
         <v>0.6742424242424242</v>
       </c>
@@ -592,14 +589,14 @@
       <c r="E12">
         <v>0.6742424242424242</v>
       </c>
-      <c r="F12">
-        <v>0.6742424242424242</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0.6742424242424242</v>
+      </c>
       <c r="C13">
         <v>0.6742424242424242</v>
       </c>
@@ -607,9 +604,6 @@
         <v>0.6742424242424242</v>
       </c>
       <c r="E13">
-        <v>0.6742424242424242</v>
-      </c>
-      <c r="F13">
         <v>0.6742424242424242</v>
       </c>
     </row>
